--- a/03_User/GiangPV/UserCase_v01_20160930 (2).xlsx
+++ b/03_User/GiangPV/UserCase_v01_20160930 (2).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="202">
   <si>
     <t>ID</t>
   </si>
@@ -628,6 +628,21 @@
   </si>
   <si>
     <t>UC- 64</t>
+  </si>
+  <si>
+    <t>Customer change status</t>
+  </si>
+  <si>
+    <t>Customer change request</t>
+  </si>
+  <si>
+    <t>Admin verify change status request</t>
+  </si>
+  <si>
+    <t>Admin accept change status request</t>
+  </si>
+  <si>
+    <t>Admin change status request</t>
   </si>
 </sst>
 </file>
@@ -891,14 +906,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1206,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,7 +1535,9 @@
       <c r="C17" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>197</v>
+      </c>
       <c r="E17" s="16"/>
       <c r="F17" s="14"/>
       <c r="G17" s="9" t="s">
@@ -1540,6 +1557,9 @@
       <c r="C18" s="11" t="s">
         <v>82</v>
       </c>
+      <c r="D18" s="13" t="s">
+        <v>198</v>
+      </c>
       <c r="E18" s="16"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -1670,7 +1690,7 @@
       <c r="B26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1687,7 +1707,7 @@
       <c r="B27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1704,7 +1724,7 @@
       <c r="B28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1721,7 +1741,7 @@
       <c r="B29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="25" t="s">
         <v>135</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1894,7 +1914,9 @@
       <c r="C39" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="13"/>
+      <c r="D39" s="13" t="s">
+        <v>199</v>
+      </c>
       <c r="E39" s="16"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -1909,7 +1931,9 @@
       <c r="C40" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="13"/>
+      <c r="D40" s="13" t="s">
+        <v>200</v>
+      </c>
       <c r="E40" s="16"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -1924,7 +1948,9 @@
       <c r="C41" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="13"/>
+      <c r="D41" s="13" t="s">
+        <v>201</v>
+      </c>
       <c r="E41" s="16"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -1942,9 +1968,9 @@
       <c r="D42" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E42" s="26"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="14"/>
-      <c r="G42" s="25"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
@@ -1959,9 +1985,9 @@
       <c r="D43" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="26"/>
+      <c r="E43" s="27"/>
       <c r="F43" s="14"/>
-      <c r="G43" s="25"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
